--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxErrCode.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxErrCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2630F342-17F2-4D43-9C6B-DC446CB6428A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7A4841-174E-4EC4-9D93-040F069AE866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,6 +227,14 @@
   <si>
     <t>ErrContent</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findbyErrCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrCode %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -486,6 +494,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -496,12 +510,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -846,25 +854,25 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="6" customWidth="1"/>
-    <col min="5" max="6" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="4"/>
+    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="7" t="s">
         <v>31</v>
       </c>
@@ -875,9 +883,9 @@
       <c r="F1" s="9"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
@@ -888,11 +896,11 @@
       <c r="F2" s="12"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
@@ -903,51 +911,51 @@
       <c r="F3" s="12"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="7"/>
       <c r="D4" s="13"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="7"/>
       <c r="D5" s="13"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="7"/>
       <c r="D6" s="13"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="7"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -970,14 +978,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>1</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -990,14 +998,14 @@
       <c r="G9" s="17"/>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -1010,7 +1018,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>17</v>
       </c>
@@ -1028,7 +1036,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>18</v>
       </c>
@@ -1048,7 +1056,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>19</v>
       </c>
@@ -1066,7 +1074,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>20</v>
       </c>
@@ -1086,7 +1094,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="20"/>
@@ -1096,7 +1104,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="20"/>
@@ -1106,7 +1114,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="20"/>
@@ -1134,22 +1142,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1158,6 +1166,14 @@
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
